--- a/本体/低截获概率雷达的检测与分类.xlsx
+++ b/本体/低截获概率雷达的检测与分类.xlsx
@@ -1,28 +1,629 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="152">
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低截获率雷达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探测距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截获距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷达距离和截获距离的对比</t>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pilot LPI雷达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>着陆系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监视和火控雷达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反舰雷达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼雷导引头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LPI波形的模糊度分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期自相关函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模糊函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期模糊函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMCW雷达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术趋势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PANDORA FMCW雷达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相移键控技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全向LPI雷达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二相码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多相码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多相巴克码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frank编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多时编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频移健控技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>噪声技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Narayanan 随机噪声雷达设计</t>
+  </si>
+  <si>
+    <t>随机噪声＋FMCW 雷达</t>
+  </si>
+  <si>
+    <t>随机噪声FMCW＋正弦</t>
+  </si>
+  <si>
+    <t>随机二相调制</t>
+  </si>
+  <si>
+    <t>毫米波噪声雷达</t>
+  </si>
+  <si>
+    <t>超视距雷达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天波OTHR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地波OTHR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探测距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面覆盖区预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反舰导弹LPI导引头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发展史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络中心战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局信息网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感器网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投射器网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>态势感知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机动性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵活性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀伤力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息网络分析度量方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广义连接性量度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考连接性量度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络覆盖率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熵和网络丰富性</t>
+  </si>
+  <si>
+    <t>最大运行速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组网LPI 雷达系统</t>
+  </si>
+  <si>
+    <t>优势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵敏度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截获LPI雷达信号的策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EW截获接收机技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用UAV探测LPI雷达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非合作截获接收机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LPI 雷达波形的Wigner-Ville 分布分析</t>
+  </si>
+  <si>
+    <t>FMCW分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPSK分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多相码分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多时码分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LPI 雷达波形的Choi-Williams 分布分析</t>
+  </si>
+  <si>
+    <t>数学推导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号分析方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号分析方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LPI 雷达的正交镜像滤波分析</t>
+  </si>
+  <si>
+    <t>波形分解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号分析方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costas 跳频分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSK/PSK 信号分析</t>
+  </si>
+  <si>
+    <t>噪声波形分析</t>
+  </si>
+  <si>
+    <t>低截获雷达参数检测的循环平稳谱分析</t>
+  </si>
+  <si>
+    <t>概述/引言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反辐射导弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反-反辐射导弹技术</t>
+  </si>
+  <si>
+    <t>LPI 雷达调制的自动分类</t>
+  </si>
+  <si>
+    <t>调制参数的自动提取</t>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用Wigner-Ville 分布-Radon 变换的多相参数提取</t>
+  </si>
+  <si>
+    <t>算法讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正交镜像滤波的多相参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环平稳双频平面条件的调频连续波参数</t>
+  </si>
+  <si>
+    <t>自动提取算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征提取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动分类步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,15 +651,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,37 +949,1049 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55:C59"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C65" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D67" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D68" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D69" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D70" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D76" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D77" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D80" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D81" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C84" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C85" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C87" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C91" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C92" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D93" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D94" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D95" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C96" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D97" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D98" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D99" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D100" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D101" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D102" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B104" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C105" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D106" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D107" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D108" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D109" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D110" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C111" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B113" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C114" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C115" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C116" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C117" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C118" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>25</v>
+      </c>
+      <c r="B120" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D122" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D123" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D124" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C125" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B127" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C128" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C129" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D130" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D131" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D132" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D133" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B135" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C136" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C137" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B141" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D143" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D144" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D145" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D146" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D147" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D148" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D149" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B152" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C153" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C154" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C155" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C156" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B158" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C159" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C160" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C161" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B163" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C164" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C165" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C166" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C167" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C168" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D169" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B171" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C172" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C173" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C174" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C175" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C176" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
+        <v>25</v>
+      </c>
+      <c r="B179" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C180" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C181" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C182" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B186" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D188" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D189" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D190" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C191" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C192" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C193" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/本体/低截获概率雷达的检测与分类.xlsx
+++ b/本体/低截获概率雷达的检测与分类.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TIAN/实验室/雷达抽取/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6255" windowWidth="28755" windowHeight="6285" tabRatio="1000" activeTab="5"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" tabRatio="1000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="步骤1-A概念提取（按章节）" sheetId="1" r:id="rId1"/>
@@ -22,9 +27,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'步骤4-B datatypeProperties'!$A$1:$N$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="265">
   <si>
     <t>Properties</t>
   </si>
@@ -1007,10 +1015,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>算法名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>算法简介</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1044,6 +1048,17 @@
   </si>
   <si>
     <t>编码方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文简称</t>
+  </si>
+  <si>
+    <t>中文名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1418,7 +1433,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1429,20 +1444,20 @@
   <dimension ref="A1:H275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="13.375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="29.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="1"/>
-    <col min="8" max="8" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.625" style="1"/>
+    <col min="1" max="1" width="16.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="1"/>
+    <col min="8" max="8" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3766,11 +3781,11 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="26.25" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3896,13 +3911,13 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="40.25" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3983,10 +3998,10 @@
       <selection pane="bottomLeft" activeCell="A33" sqref="A33:C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4326,10 +4341,10 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="3" width="13.625" customWidth="1"/>
+    <col min="2" max="3" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -5851,9 +5866,9 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -6199,17 +6214,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L337"/>
+  <dimension ref="A1:L345"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="5"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6234,7 +6249,7 @@
     </row>
     <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6244,326 +6259,257 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="6" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="7" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="8" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="s">
-        <v>238</v>
-      </c>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="10" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="B26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
       <c r="B27" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+        <v>260</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="10" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="1" t="s">
-        <v>23</v>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9" t="s">
+        <v>253</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="1" t="s">
-        <v>24</v>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="1" t="s">
-        <v>25</v>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9" t="s">
+        <v>255</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="1" t="s">
-        <v>26</v>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9" t="s">
+        <v>256</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="1"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9" t="s">
+        <v>257</v>
+      </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -6574,8 +6520,8 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
-      <c r="B44" s="1" t="s">
-        <v>29</v>
+      <c r="B44" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -6586,10 +6532,10 @@
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
-      <c r="B45" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A45" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -6601,7 +6547,7 @@
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -6614,7 +6560,7 @@
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6625,8 +6571,10 @@
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="1"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -6636,8 +6584,10 @@
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
-      <c r="B49" s="1"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -6647,7 +6597,9 @@
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
+      <c r="A50" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -6658,8 +6610,10 @@
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
-      <c r="B51" s="1"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -6669,8 +6623,10 @@
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="1"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -6680,8 +6636,10 @@
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="7"/>
-      <c r="B53" s="1"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -6691,8 +6649,10 @@
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="1"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -6702,8 +6662,10 @@
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
-      <c r="B55" s="1"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -6722,8 +6684,6 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
@@ -6735,8 +6695,6 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
@@ -6748,8 +6706,6 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
@@ -6761,8 +6717,6 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
@@ -6774,8 +6728,6 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
@@ -6820,8 +6772,10 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -6831,8 +6785,10 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -6842,8 +6798,10 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -6853,8 +6811,10 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -6864,8 +6824,10 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -6876,9 +6838,10 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
       <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -6886,9 +6849,10 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
       <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -6896,9 +6860,10 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
       <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -6906,9 +6871,10 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
       <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -6916,9 +6882,10 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
       <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -6926,9 +6893,10 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
       <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -6936,9 +6904,10 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
       <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -6946,9 +6915,10 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
       <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -6956,7 +6926,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
       <c r="B78" s="1"/>
       <c r="D78" s="1"/>
@@ -6966,7 +6936,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
       <c r="B79" s="1"/>
       <c r="D79" s="1"/>
@@ -6976,7 +6946,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
       <c r="B80" s="1"/>
       <c r="D80" s="1"/>
@@ -6986,130 +6956,186 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="7"/>
       <c r="B81" s="1"/>
       <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="7"/>
       <c r="B82" s="1"/>
       <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
       <c r="B83" s="1"/>
       <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="7"/>
       <c r="B84" s="1"/>
       <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
       <c r="B85" s="1"/>
       <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
       <c r="B86" s="1"/>
       <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="7"/>
       <c r="B87" s="1"/>
       <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="7"/>
       <c r="B88" s="1"/>
       <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="7"/>
       <c r="B89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="7"/>
       <c r="B90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="7"/>
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="7"/>
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="7"/>
       <c r="B95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="7"/>
+      <c r="B96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="7"/>
+      <c r="B97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="7"/>
+      <c r="B98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="7"/>
+      <c r="B99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="7"/>
+      <c r="B100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="7"/>
+      <c r="B101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="7"/>
+      <c r="B102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="7"/>
+      <c r="B103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D112" s="1"/>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.2">
@@ -7160,69 +7186,58 @@
     <row r="128" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C138" s="1"/>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C140" s="1"/>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C141" s="1"/>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C142" s="1"/>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C143" s="1"/>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C144" s="1"/>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D144" s="1"/>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
@@ -7232,76 +7247,48 @@
       <c r="D147" s="1"/>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
@@ -7309,6 +7296,7 @@
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
@@ -7316,6 +7304,7 @@
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -7323,6 +7312,7 @@
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -7330,6 +7320,7 @@
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -7337,6 +7328,7 @@
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -7344,6 +7336,7 @@
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -7351,6 +7344,7 @@
     </row>
     <row r="164" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -7379,47 +7373,71 @@
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B172" s="1"/>
       <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B173" s="1"/>
       <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B174" s="1"/>
       <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B175" s="1"/>
       <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
     </row>
     <row r="176" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B176" s="1"/>
-      <c r="D176" s="1"/>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B177" s="1"/>
-      <c r="D177" s="1"/>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B178" s="1"/>
-      <c r="D178" s="1"/>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B179" s="1"/>
-      <c r="D179" s="1"/>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B180" s="1"/>
@@ -7434,9 +7452,11 @@
       <c r="D182" s="1"/>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B183" s="1"/>
       <c r="D183" s="1"/>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B184" s="1"/>
       <c r="D184" s="1"/>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.2">
@@ -7444,15 +7464,19 @@
       <c r="D185" s="1"/>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B186" s="1"/>
       <c r="D186" s="1"/>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B187" s="1"/>
       <c r="D187" s="1"/>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B188" s="1"/>
       <c r="D188" s="1"/>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B189" s="1"/>
       <c r="D189" s="1"/>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.2">
@@ -7460,11 +7484,9 @@
       <c r="D190" s="1"/>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B191" s="1"/>
       <c r="D191" s="1"/>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B192" s="1"/>
       <c r="D192" s="1"/>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.2">
@@ -7472,19 +7494,15 @@
       <c r="D193" s="1"/>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B194" s="1"/>
       <c r="D194" s="1"/>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B195" s="1"/>
       <c r="D195" s="1"/>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B196" s="1"/>
       <c r="D196" s="1"/>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B197" s="1"/>
       <c r="D197" s="1"/>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.2">
@@ -7681,12 +7699,10 @@
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B246" s="1"/>
-      <c r="C246" s="1"/>
       <c r="D246" s="1"/>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B247" s="1"/>
-      <c r="C247" s="1"/>
       <c r="D247" s="1"/>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.2">
@@ -7715,10 +7731,12 @@
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
       <c r="D254" s="1"/>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
       <c r="D255" s="1"/>
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.2">
@@ -7735,7 +7753,6 @@
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B259" s="1"/>
-      <c r="C259" s="1"/>
       <c r="D259" s="1"/>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.2">
@@ -7768,19 +7785,20 @@
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B268" s="1"/>
-      <c r="C268" s="1"/>
       <c r="D268" s="1"/>
     </row>
     <row r="269" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B269" s="1"/>
-      <c r="C269" s="1"/>
       <c r="D269" s="1"/>
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B270" s="1"/>
+      <c r="D270" s="1"/>
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B271" s="1"/>
@@ -7800,19 +7818,19 @@
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B275" s="1"/>
-      <c r="D275" s="1"/>
     </row>
     <row r="276" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
       <c r="D276" s="1"/>
     </row>
     <row r="277" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
       <c r="D277" s="1"/>
     </row>
     <row r="278" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B278" s="1"/>
-      <c r="D278" s="1"/>
     </row>
     <row r="279" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B279" s="1"/>
@@ -7827,6 +7845,7 @@
       <c r="D281" s="1"/>
     </row>
     <row r="282" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B282" s="1"/>
       <c r="D282" s="1"/>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.2">
@@ -7858,7 +7877,6 @@
       <c r="D289" s="1"/>
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B290" s="1"/>
       <c r="D290" s="1"/>
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.2">
@@ -7975,51 +7993,83 @@
     </row>
     <row r="319" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B319" s="1"/>
+      <c r="D319" s="1"/>
     </row>
     <row r="320" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B320" s="1"/>
-    </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="D320" s="1"/>
+    </row>
+    <row r="321" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B321" s="1"/>
-    </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="D321" s="1"/>
+    </row>
+    <row r="322" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B322" s="1"/>
-    </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="D322" s="1"/>
+    </row>
+    <row r="323" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B323" s="1"/>
-    </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="D323" s="1"/>
+    </row>
+    <row r="324" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B324" s="1"/>
-    </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="D324" s="1"/>
+    </row>
+    <row r="325" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B325" s="1"/>
-    </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="D325" s="1"/>
+    </row>
+    <row r="326" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B326" s="1"/>
-    </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="D326" s="1"/>
+    </row>
+    <row r="327" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B327" s="1"/>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B328" s="1"/>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B329" s="1"/>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B330" s="1"/>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B331" s="1"/>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B332" s="1"/>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B333" s="1"/>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A337" s="5" t="s">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B334" s="1"/>
+    </row>
+    <row r="335" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B335" s="1"/>
+    </row>
+    <row r="336" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B336" s="1"/>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B337" s="1"/>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B338" s="1"/>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B339" s="1"/>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B340" s="1"/>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B341" s="1"/>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8032,16 +8082,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:D46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -8063,58 +8113,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
+    <row r="10" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>56</v>
@@ -8133,177 +8133,241 @@
     </row>
     <row r="15" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
-        <v>104</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C16" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38" t="s">
-        <v>68</v>
-      </c>
-      <c r="G38" t="s">
-        <v>69</v>
-      </c>
-      <c r="H38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D40" s="9"/>
+        <v>108</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="9"/>
       <c r="C41" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D41" s="9"/>
+        <v>109</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="9"/>
       <c r="C42" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="D42" s="9"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="9"/>
       <c r="C44" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="D44" s="9"/>
+        <v>112</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="9"/>
       <c r="C45" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="D45" s="9"/>
+        <v>113</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="9"/>
       <c r="C46" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="D46" s="9"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="9"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9" t="s">
+        <v>188</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8319,7 +8383,7 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8334,10 +8398,10 @@
       <selection activeCell="E14" sqref="A2:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.375" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8407,19 +8471,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="A2:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.875" customWidth="1"/>
-    <col min="2" max="2" width="8.625" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
